--- a/biology/Botanique/Cirier_de_Pennsylvanie/Cirier_de_Pennsylvanie.xlsx
+++ b/biology/Botanique/Cirier_de_Pennsylvanie/Cirier_de_Pennsylvanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morella pensylvanica, l’Arbre à cire, Myrica cirier, Myrique de Pennsylvanie ou Cirier de Pennsylvanie, est une espèce de plantes à fleurs de la famille des Myricaceae. Elle pousse dans l'Est de l'Amérique du Nord.
 Notamment aux Îles de la Madeleine en forêt et milieu dunaire.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Morella pensylvanica (Mirb.) Kartesz[1].
-L'espèce a été initialement classée dans le genre Myrica sous le basionyme Myrica pensylvanica Mirb.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : arbre à cire[1], myrica cirier[1], myrique de Pennsylvanie[1], cirier de Pennsylvanie[1],[2].
-Morella pensylvanica a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Morella pensylvanica (Mirb.) Kartesz.
+L'espèce a été initialement classée dans le genre Myrica sous le basionyme Myrica pensylvanica Mirb..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : arbre à cire, myrica cirier, myrique de Pennsylvanie, cirier de Pennsylvanie,.
+Morella pensylvanica a pour synonymes :
 Cerothamnus pensylvanicus (Loisel.) Moldenke
 Morella macfarlanei (Youngken) Kartesz
 Myrica macfarlanei Youngken
